--- a/st-test2.xlsx
+++ b/st-test2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hg\Desktop\Python\venv\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hg\Desktop\Python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6A3549-FA63-4C63-9271-05F83EC86653}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8931A3D-46D2-4E71-9208-CBD1F13D9812}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syra Tomten" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>Namn</t>
   </si>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>41:43</t>
+  </si>
+  <si>
+    <t>Anna Fiorillo</t>
+  </si>
+  <si>
+    <t>43:22</t>
+  </si>
+  <si>
+    <t>42:22</t>
+  </si>
+  <si>
+    <t>38:35</t>
   </si>
 </sst>
 </file>
@@ -585,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,6 +1005,26 @@
         <v>73</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st-test2.xlsx
+++ b/st-test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hg\Desktop\Python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8931A3D-46D2-4E71-9208-CBD1F13D9812}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAFA576-155B-4F63-A3C3-57B67D461EBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="23040" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syra Tomten" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +285,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,13 +318,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,56 +610,56 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>64</v>
       </c>
     </row>
